--- a/medicine/Enfance/Guy_Counhaye/Guy_Counhaye.xlsx
+++ b/medicine/Enfance/Guy_Counhaye/Guy_Counhaye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guy Counhaye, né le 16 avril 1946 à Verviers (province de Liège), est un dessinateur et scénariste belge francophone de bande dessinée, principalement connu pour les séries Professeur Stratus et Les Voyages de l'Héloïse ainsi qu'un artiste peintre.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guy Counhaye naît le 16 avril 1946 à Verviers[1].
-Il aborde la bande dessinée avec la parution de quelques court récits dans Spirou[2]. Dès 1973, sur un scénario de Raoul Cauvin, il anime Les Naufragés de l'espace[3] dans le même hebdomadaire[2]. Puis, il anime seul la série Bobul et Schnouf et il lance la série Géo et Tafta[4] dont le récit Le Pays de Guelem[2] connaît une publication en album dans la collection « Carte Blanche » aux éditions Dupuis en 1983. Pour les éditions liégeoises H. Dessain, il publie Gorr, le loup, et autres récits fantastiques d'après Marcellin La Garde en 1986 et Bobul et Schnouf[2] dont la mise en couleur est assurée par Jeanine Rahir en 1987. Il lance dans Hello Bédé en 1989 la série fantastique Professeur Stratus[2] qui compte quatre albums aux éditions Le Lombard (1990-2003)[5]. Il réalise également deux livres de la série Les Voyages de l'Héloïse pour le même éditeur en 1999 et 2001[6].
-Guy Counhaye écrit aussi diverses histoires pour enfants, illustrées par Jean Lequeu et son épouse Marie-José Sacré[6].
-En outre, il est un peintre expressionniste[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guy Counhaye naît le 16 avril 1946 à Verviers.
+Il aborde la bande dessinée avec la parution de quelques court récits dans Spirou. Dès 1973, sur un scénario de Raoul Cauvin, il anime Les Naufragés de l'espace dans le même hebdomadaire. Puis, il anime seul la série Bobul et Schnouf et il lance la série Géo et Tafta dont le récit Le Pays de Guelem connaît une publication en album dans la collection « Carte Blanche » aux éditions Dupuis en 1983. Pour les éditions liégeoises H. Dessain, il publie Gorr, le loup, et autres récits fantastiques d'après Marcellin La Garde en 1986 et Bobul et Schnouf dont la mise en couleur est assurée par Jeanine Rahir en 1987. Il lance dans Hello Bédé en 1989 la série fantastique Professeur Stratus qui compte quatre albums aux éditions Le Lombard (1990-2003). Il réalise également deux livres de la série Les Voyages de l'Héloïse pour le même éditeur en 1999 et 2001.
+Guy Counhaye écrit aussi diverses histoires pour enfants, illustrées par Jean Lequeu et son épouse Marie-José Sacré.
+En outre, il est un peintre expressionniste.
 </t>
         </is>
       </c>
@@ -547,22 +561,61 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums
-Géo et Tafta (dessinateur et scénariste), Dupuis :
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Géo et Tafta (dessinateur et scénariste), Dupuis :
 Le Pays de Guelem, (coll. « Carte Blanche » no 6), 1983  (ISBN 2-8001-0983-1).
 Gorr, le loup, et autres récits fantastiques (dessinateur), d'après Marcellin La Garde, éditions H. Dessain, 1986.
 Bobul et Schnouf (dessinateur), couleurs de Jeanine Rahir, éditions H. Dessain, 1987.
-Flash Back[7], Comic! Events, août 1995Scénario : collectif - Dessin : collectif dont Guy Counhaye - Couleurs : noir et blanc,Ce Flash Back a été réalisé en collaboration avec Bédéciné Illzach et édité à l'occasion du 10e festival BD Coxyde (15 juillet au 6 août 1995) à 1500 exemplaires numérotés à la main. Rares textes et titres des séries en deux langues : français et flamand. D/1995/6941/06. Format à l'italienne.
+Flash Back, Comic! Events, août 1995Scénario : collectif - Dessin : collectif dont Guy Counhaye - Couleurs : noir et blanc,Ce Flash Back a été réalisé en collaboration avec Bédéciné Illzach et édité à l'occasion du 10e festival BD Coxyde (15 juillet au 6 août 1995) à 1500 exemplaires numérotés à la main. Rares textes et titres des séries en deux langues : français et flamand. D/1995/6941/06. Format à l'italienne.
 Professeur Stratus (dessinateur et scénariste), Le Lombard :
 Le Tombeau des neiges, 1990  (ISBN 2-8036-0887-1).
 La Forteresse amphibie, 1993  (ISBN 2-8036-1010-8).
-Les Démons de Roquebrou[8], 1996  (ISBN 2-8036-1217-8).
-Le Monstre des mers[5], 2003  (ISBN 2-8036-1884-2).
+Les Démons de Roquebrou, 1996  (ISBN 2-8036-1217-8).
+Le Monstre des mers, 2003  (ISBN 2-8036-1884-2).
 Les Voyages de l'Héloïse (dessinateur et scénariste), couleurs de Luce Leclercq, Le Lombard :
 Mer calme Temps variable, 1999  (ISBN 2803613409).
-100 millions d'années trop loin[9], 2001  (ISBN 2803616483).
-Livres pour enfants
-Victor, l'hippopotame volant (textes), illustrations de Marie-José Sacré, (coll. « Contes de la forêt »), éditions Cerf, 1981.
+100 millions d'années trop loin, 2001  (ISBN 2803616483).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Guy_Counhaye</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guy_Counhaye</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres publiées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Victor, l'hippopotame volant (textes), illustrations de Marie-José Sacré, (coll. « Contes de la forêt »), éditions Cerf, 1981.
 Pépé, loup de mer (textes), illustrations de Marie-José Sacré, (coll. « Funambule »), éditions Casterman, 1981.
 Alphonse, le cochon parfumé (textes), illustrations de Marie-José Sacré, éditions Dupuis, 1984.
 Balthazar, le lion sans dent (textes), illustrations de Marie-José Sacré, éditions Dupuis, 1984.
